--- a/va_facility_data_2025-02-20/Oak Lawn VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Oak%20Lawn%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Oak Lawn VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Oak%20Lawn%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Re03e3f159b0a4078b8500f5328f40a47"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Re717fd836ea1462fbd1acbfe1fc5fc65"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R8f61f94bb57c4838aee6c8ae60e122d9"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rdd5b71d78a3a4c3dafa44f855ac29706"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rce93cee343604bedbcfcd056e0706e4c"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R589af2f7638e43e689408b8e5e9c07c1"/>
   </x:sheets>
 </x:workbook>
 </file>
